--- a/OSSemTask_AQYO8L/OSSem_Task_AQYO8L.xlsx
+++ b/OSSemTask_AQYO8L/OSSem_Task_AQYO8L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\László\Desktop\OS\AQYO8LOsGyak\OSSemTask_AQYO8L\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54C154E-4C54-4B3F-868A-F7AE1006E5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AD27A1-8B48-4F1F-89A8-5A3647DE7454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E145D8E7-54AE-4DB1-80A8-2B8B4E6122DF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
   <si>
     <t>A</t>
   </si>
@@ -67,9 +67,6 @@
     <t>p_nice: A:0, B:5, C:0, D:0</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>usr_pri</t>
   </si>
   <si>
@@ -82,7 +79,76 @@
     <t>p_usrpri = P_USER+p_cpu/4+2*p_nice</t>
   </si>
   <si>
-    <t>KF=várakozó folyamatok száma/várakozó folyamatok száma+1</t>
+    <t>Minden óraütésnél növeli a futó folyamat p_cpu értékét</t>
+  </si>
+  <si>
+    <t>Korrekciós faktor értéke: 2*3/2*3+1</t>
+  </si>
+  <si>
+    <t>100. interrupt: A: p_cpu = 40*0,8 = 32</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60 + 31,2/4+2*0 = 68</t>
+  </si>
+  <si>
+    <t>B: p_cpu = 0*0,8 = 0</t>
+  </si>
+  <si>
+    <t>C: p_cpu = 30*0,8 = 24</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60 + 24/4+2*0 = 66</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60 + 0/4 + 2*5 = 70</t>
+  </si>
+  <si>
+    <t>D: p_cpu = 30*0,8 = 24</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60+24/4+2*0 = 66</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60 + 0/4+2*5 = 70</t>
+  </si>
+  <si>
+    <t>C: p_cpu = 70*0,8 = 56</t>
+  </si>
+  <si>
+    <t>200. interrupt: A: p_cpu = 62*0,8 ~ 50</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60 +50/4+2*0 ~ 73</t>
+  </si>
+  <si>
+    <t>C: p_cpu = 63*0,8 ~ 50</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60 + 50/4+2*0 ~73</t>
+  </si>
+  <si>
+    <t>D: p_cpu = 54*0,8 ~ 43</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60 + 43/4+2*0 ~ 71</t>
+  </si>
+  <si>
+    <t>300. interrupt: A: p_cpu = 70*0,8 = 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_usrpri = 60+56/4+2*0 = 74  </t>
+  </si>
+  <si>
+    <t>B: p_cpu = 30*0,8 = 24</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60+24/4+2*5 = 76</t>
+  </si>
+  <si>
+    <t>D: p_cpu = 74*0,8 ~ 59</t>
+  </si>
+  <si>
+    <t>p_usrpri = 60+59/4+2*0 ~ 75</t>
   </si>
 </sst>
 </file>
@@ -108,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -201,11 +273,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7C2C35-3955-4832-9F42-3DA261A1C8EF}">
-  <dimension ref="A1:N303"/>
+  <dimension ref="A1:O304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,52 +621,52 @@
     <col min="14" max="14" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>7</v>
@@ -594,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="5">
         <v>0</v>
@@ -620,18 +707,18 @@
       <c r="I3" s="5">
         <v>60</v>
       </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="5">
         <v>1</v>
@@ -657,17 +744,17 @@
       <c r="I4" s="5">
         <v>60</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="5">
         <v>2</v>
@@ -693,20 +780,20 @@
       <c r="I5" s="5">
         <v>60</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="5">
         <v>3</v>
@@ -732,20 +819,20 @@
       <c r="I6" s="5">
         <v>60</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="5">
         <v>4</v>
@@ -771,20 +858,20 @@
       <c r="I7" s="5">
         <v>60</v>
       </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="5">
         <v>5</v>
@@ -810,20 +897,17 @@
       <c r="I8" s="5">
         <v>60</v>
       </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="5">
         <v>6</v>
@@ -849,17 +933,20 @@
       <c r="I9" s="5">
         <v>60</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="5">
         <v>7</v>
@@ -885,17 +972,23 @@
       <c r="I10" s="5">
         <v>60</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="5">
         <v>8</v>
@@ -921,17 +1014,17 @@
       <c r="I11" s="5">
         <v>60</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="5">
         <v>9</v>
@@ -957,17 +1050,17 @@
       <c r="I12" s="5">
         <v>60</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="5">
         <v>10</v>
@@ -993,62 +1086,62 @@
       <c r="I13" s="5">
         <v>60</v>
       </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="5">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="E14" s="5">
+        <v>65</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>60</v>
+      </c>
+      <c r="H14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I14" s="5">
+        <v>60</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="5">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5">
         <v>60</v>
       </c>
       <c r="D15" s="5">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
         <v>65</v>
@@ -1060,706 +1153,1174 @@
         <v>60</v>
       </c>
       <c r="H15" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <v>60</v>
       </c>
-      <c r="J15" s="5">
-        <v>30</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J15" s="10">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H16" s="5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I16" s="5">
-        <v>57</v>
-      </c>
-      <c r="J16" s="5">
-        <v>26</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="10">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="5">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H17" s="5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I17" s="5">
-        <v>57</v>
-      </c>
-      <c r="J17" s="5">
-        <v>26</v>
-      </c>
-      <c r="K17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="10">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="5">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H18" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I18" s="5">
-        <v>57</v>
-      </c>
-      <c r="J18" s="5">
-        <v>26</v>
-      </c>
-      <c r="K18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="10">
+        <v>20</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5">
+        <v>70</v>
+      </c>
+      <c r="C19" s="5">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5">
+        <v>65</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>60</v>
+      </c>
+      <c r="H19" s="5">
+        <v>20</v>
+      </c>
+      <c r="I19" s="5">
+        <v>60</v>
+      </c>
+      <c r="J19" s="10">
+        <v>20</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="5">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="C20" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E20" s="5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H20" s="5">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I20" s="5">
-        <v>57</v>
-      </c>
-      <c r="J20" s="5">
-        <v>56</v>
-      </c>
-      <c r="K20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="10">
+        <v>20</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="5">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C21" s="5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D21" s="5">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E21" s="5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H21" s="5">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I21" s="5">
-        <v>62</v>
-      </c>
-      <c r="J21" s="5">
-        <v>48</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="J21" s="10">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="5">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="C22" s="5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" s="5">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>60</v>
+      </c>
+      <c r="H22" s="5">
+        <v>30</v>
+      </c>
+      <c r="I22" s="5">
+        <v>60</v>
+      </c>
+      <c r="J22" s="10">
+        <v>30</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="11">
+        <v>100</v>
+      </c>
+      <c r="C23" s="11">
+        <v>68</v>
+      </c>
+      <c r="D23" s="11">
+        <v>32</v>
+      </c>
+      <c r="E23" s="11">
+        <v>70</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>66</v>
+      </c>
+      <c r="H23" s="11">
+        <v>24</v>
+      </c>
+      <c r="I23" s="11">
+        <v>66</v>
+      </c>
+      <c r="J23" s="12">
+        <v>24</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="5">
-        <v>64</v>
-      </c>
-      <c r="H22" s="5">
-        <v>57</v>
-      </c>
-      <c r="I22" s="5">
-        <v>62</v>
-      </c>
-      <c r="J22" s="5">
-        <v>48</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5">
-        <v>202</v>
-      </c>
-      <c r="C23" s="5">
-        <v>64</v>
-      </c>
-      <c r="D23" s="5">
-        <v>55</v>
-      </c>
-      <c r="E23" s="5">
-        <v>60</v>
-      </c>
-      <c r="F23" s="5">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5">
+        <v>110</v>
+      </c>
+      <c r="C24" s="5">
+        <v>68</v>
+      </c>
+      <c r="D24" s="5">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5">
+        <v>70</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>66</v>
+      </c>
+      <c r="H24" s="5">
+        <v>34</v>
+      </c>
+      <c r="I24" s="5">
+        <v>66</v>
+      </c>
+      <c r="J24" s="10">
+        <v>24</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="5">
-        <v>64</v>
-      </c>
-      <c r="H23" s="5">
-        <v>57</v>
-      </c>
-      <c r="I23" s="5">
-        <v>62</v>
-      </c>
-      <c r="J23" s="5">
-        <v>48</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="5">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="C25" s="5">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F25" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H25" s="5">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I25" s="5">
-        <v>62</v>
-      </c>
-      <c r="J25" s="5">
-        <v>96</v>
-      </c>
-      <c r="K25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="10">
+        <v>34</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="5">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="C26" s="5">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E26" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F26" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H26" s="5">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I26" s="5">
-        <v>62</v>
-      </c>
-      <c r="J26" s="5">
-        <v>97</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="J26" s="10">
+        <v>34</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="5">
+        <v>140</v>
+      </c>
+      <c r="C27" s="5">
+        <v>68</v>
+      </c>
+      <c r="D27" s="5">
+        <v>42</v>
+      </c>
+      <c r="E27" s="5">
+        <v>70</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>66</v>
+      </c>
+      <c r="H27" s="5">
+        <v>44</v>
+      </c>
+      <c r="I27" s="5">
+        <v>66</v>
+      </c>
+      <c r="J27" s="10">
+        <v>34</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5">
+        <v>150</v>
+      </c>
+      <c r="C28" s="5">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5">
+        <v>42</v>
+      </c>
+      <c r="E28" s="5">
+        <v>70</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>66</v>
+      </c>
+      <c r="H28" s="5">
+        <v>44</v>
+      </c>
+      <c r="I28" s="5">
+        <v>66</v>
+      </c>
+      <c r="J28" s="10">
+        <v>44</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5">
+        <v>160</v>
+      </c>
+      <c r="C29" s="5">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5">
+        <v>52</v>
+      </c>
+      <c r="E29" s="5">
+        <v>70</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>66</v>
+      </c>
+      <c r="H29" s="5">
+        <v>44</v>
+      </c>
+      <c r="I29" s="5">
+        <v>66</v>
+      </c>
+      <c r="J29" s="10">
+        <v>44</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5">
+        <v>170</v>
+      </c>
+      <c r="C30" s="5">
+        <v>68</v>
+      </c>
+      <c r="D30" s="5">
+        <v>52</v>
+      </c>
+      <c r="E30" s="5">
+        <v>70</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>66</v>
+      </c>
+      <c r="H30" s="5">
+        <v>54</v>
+      </c>
+      <c r="I30" s="5">
+        <v>66</v>
+      </c>
+      <c r="J30" s="10">
+        <v>44</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5">
+        <v>180</v>
+      </c>
+      <c r="C31" s="5">
+        <v>68</v>
+      </c>
+      <c r="D31" s="5">
+        <v>52</v>
+      </c>
+      <c r="E31" s="5">
+        <v>70</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>66</v>
+      </c>
+      <c r="H31" s="5">
+        <v>54</v>
+      </c>
+      <c r="I31" s="5">
+        <v>66</v>
+      </c>
+      <c r="J31" s="10">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5">
+        <v>190</v>
+      </c>
+      <c r="C32" s="5">
+        <v>68</v>
+      </c>
+      <c r="D32" s="5">
+        <v>62</v>
+      </c>
+      <c r="E32" s="5">
+        <v>70</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>66</v>
+      </c>
+      <c r="H32" s="5">
+        <v>54</v>
+      </c>
+      <c r="I32" s="5">
+        <v>66</v>
+      </c>
+      <c r="J32" s="10">
+        <v>54</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5">
+        <v>199</v>
+      </c>
+      <c r="C33" s="5">
+        <v>68</v>
+      </c>
+      <c r="D33" s="5">
+        <v>62</v>
+      </c>
+      <c r="E33" s="5">
+        <v>70</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>66</v>
+      </c>
+      <c r="H33" s="5">
+        <v>63</v>
+      </c>
+      <c r="I33" s="5">
+        <v>66</v>
+      </c>
+      <c r="J33" s="10">
+        <v>54</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="11">
+        <v>200</v>
+      </c>
+      <c r="C34" s="11">
+        <v>73</v>
+      </c>
+      <c r="D34" s="11">
+        <v>50</v>
+      </c>
+      <c r="E34" s="11">
+        <v>70</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>73</v>
+      </c>
+      <c r="H34" s="11">
+        <v>50</v>
+      </c>
+      <c r="I34" s="11">
+        <v>71</v>
+      </c>
+      <c r="J34" s="12">
+        <v>43</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="5">
+        <v>210</v>
+      </c>
+      <c r="C35" s="5">
+        <v>73</v>
+      </c>
+      <c r="D35" s="5">
+        <v>50</v>
+      </c>
+      <c r="E35" s="5">
+        <v>70</v>
+      </c>
+      <c r="F35" s="5">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5">
+        <v>73</v>
+      </c>
+      <c r="H35" s="5">
+        <v>50</v>
+      </c>
+      <c r="I35" s="5">
+        <v>71</v>
+      </c>
+      <c r="J35" s="10">
+        <v>43</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5">
+        <v>220</v>
+      </c>
+      <c r="C36" s="5">
+        <v>73</v>
+      </c>
+      <c r="D36" s="5">
+        <v>50</v>
+      </c>
+      <c r="E36" s="5">
+        <v>70</v>
+      </c>
+      <c r="F36" s="5">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5">
+        <v>73</v>
+      </c>
+      <c r="H36" s="5">
+        <v>50</v>
+      </c>
+      <c r="I36" s="5">
+        <v>71</v>
+      </c>
+      <c r="J36" s="10">
+        <v>53</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="5">
+        <v>230</v>
+      </c>
+      <c r="C37" s="5">
+        <v>73</v>
+      </c>
+      <c r="D37" s="5">
+        <v>60</v>
+      </c>
+      <c r="E37" s="5">
+        <v>70</v>
+      </c>
+      <c r="F37" s="5">
+        <v>10</v>
+      </c>
+      <c r="G37" s="5">
+        <v>73</v>
+      </c>
+      <c r="H37" s="5">
+        <v>50</v>
+      </c>
+      <c r="I37" s="5">
+        <v>71</v>
+      </c>
+      <c r="J37" s="10">
+        <v>53</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="5">
+        <v>240</v>
+      </c>
+      <c r="C38" s="5">
+        <v>73</v>
+      </c>
+      <c r="D38" s="5">
+        <v>60</v>
+      </c>
+      <c r="E38" s="5">
+        <v>70</v>
+      </c>
+      <c r="F38" s="5">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5">
+        <v>73</v>
+      </c>
+      <c r="H38" s="5">
+        <v>60</v>
+      </c>
+      <c r="I38" s="5">
+        <v>71</v>
+      </c>
+      <c r="J38" s="10">
+        <v>53</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5">
+        <v>250</v>
+      </c>
+      <c r="C39" s="5">
+        <v>73</v>
+      </c>
+      <c r="D39" s="5">
+        <v>60</v>
+      </c>
+      <c r="E39" s="5">
+        <v>70</v>
+      </c>
+      <c r="F39" s="5">
+        <v>20</v>
+      </c>
+      <c r="G39" s="5">
+        <v>73</v>
+      </c>
+      <c r="H39" s="5">
+        <v>60</v>
+      </c>
+      <c r="I39" s="5">
+        <v>71</v>
+      </c>
+      <c r="J39" s="10">
+        <v>53</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="5">
+        <v>260</v>
+      </c>
+      <c r="C40" s="5">
+        <v>73</v>
+      </c>
+      <c r="D40" s="5">
+        <v>60</v>
+      </c>
+      <c r="E40" s="5">
+        <v>70</v>
+      </c>
+      <c r="F40" s="5">
+        <v>20</v>
+      </c>
+      <c r="G40" s="5">
+        <v>73</v>
+      </c>
+      <c r="H40" s="5">
+        <v>60</v>
+      </c>
+      <c r="I40" s="5">
+        <v>71</v>
+      </c>
+      <c r="J40" s="10">
+        <v>63</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="5">
+        <v>270</v>
+      </c>
+      <c r="C41" s="5">
+        <v>73</v>
+      </c>
+      <c r="D41" s="5">
+        <v>70</v>
+      </c>
+      <c r="E41" s="5">
+        <v>70</v>
+      </c>
+      <c r="F41" s="5">
+        <v>20</v>
+      </c>
+      <c r="G41" s="5">
+        <v>73</v>
+      </c>
+      <c r="H41" s="5">
+        <v>60</v>
+      </c>
+      <c r="I41" s="5">
+        <v>71</v>
+      </c>
+      <c r="J41" s="10">
+        <v>63</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="5">
+        <v>280</v>
+      </c>
+      <c r="C42" s="5">
+        <v>73</v>
+      </c>
+      <c r="D42" s="5">
+        <v>70</v>
+      </c>
+      <c r="E42" s="5">
+        <v>70</v>
+      </c>
+      <c r="F42" s="5">
+        <v>20</v>
+      </c>
+      <c r="G42" s="5">
+        <v>73</v>
+      </c>
+      <c r="H42" s="5">
+        <v>70</v>
+      </c>
+      <c r="I42" s="5">
+        <v>71</v>
+      </c>
+      <c r="J42" s="10">
+        <v>63</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="5">
+        <v>290</v>
+      </c>
+      <c r="C43" s="5">
+        <v>73</v>
+      </c>
+      <c r="D43" s="5">
+        <v>70</v>
+      </c>
+      <c r="E43" s="5">
+        <v>70</v>
+      </c>
+      <c r="F43" s="5">
+        <v>30</v>
+      </c>
+      <c r="G43" s="5">
+        <v>73</v>
+      </c>
+      <c r="H43" s="5">
+        <v>70</v>
+      </c>
+      <c r="I43" s="5">
+        <v>71</v>
+      </c>
+      <c r="J43" s="10">
+        <v>63</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="5">
+        <v>299</v>
+      </c>
+      <c r="C44" s="5">
+        <v>73</v>
+      </c>
+      <c r="D44" s="5">
+        <v>70</v>
+      </c>
+      <c r="E44" s="5">
+        <v>70</v>
+      </c>
+      <c r="F44" s="5">
+        <v>30</v>
+      </c>
+      <c r="G44" s="5">
+        <v>73</v>
+      </c>
+      <c r="H44" s="5">
+        <v>70</v>
+      </c>
+      <c r="I44" s="5">
+        <v>71</v>
+      </c>
+      <c r="J44" s="10">
+        <v>73</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="11">
         <v>300</v>
       </c>
-      <c r="C27" s="5">
-        <v>62</v>
-      </c>
-      <c r="D27" s="5">
-        <v>47</v>
-      </c>
-      <c r="E27" s="5">
-        <v>71</v>
-      </c>
-      <c r="F27" s="5">
-        <v>43</v>
-      </c>
-      <c r="G27" s="5">
-        <v>62</v>
-      </c>
-      <c r="H27" s="5">
-        <v>49</v>
-      </c>
-      <c r="I27" s="5">
-        <v>71</v>
-      </c>
-      <c r="J27" s="5">
-        <v>84</v>
-      </c>
-      <c r="K27" s="5" t="s">
+      <c r="C45" s="11">
+        <v>74</v>
+      </c>
+      <c r="D45" s="11">
+        <v>56</v>
+      </c>
+      <c r="E45" s="11">
+        <v>76</v>
+      </c>
+      <c r="F45" s="11">
+        <v>24</v>
+      </c>
+      <c r="G45" s="11">
+        <v>74</v>
+      </c>
+      <c r="H45" s="11">
+        <v>56</v>
+      </c>
+      <c r="I45" s="11">
+        <v>75</v>
+      </c>
+      <c r="J45" s="12">
+        <v>59</v>
+      </c>
+      <c r="K45" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L45" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1769,11 +2330,11 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J46" s="10"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1783,11 +2344,11 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J47" s="10"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1797,9 +2358,9 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -1811,9 +2372,9 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
@@ -1825,9 +2386,9 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
@@ -1839,9 +2400,9 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -1853,9 +2414,9 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
@@ -1867,9 +2428,9 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
@@ -1881,9 +2442,9 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
@@ -1895,9 +2456,9 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
@@ -1909,9 +2470,9 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
@@ -1923,9 +2484,9 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
@@ -1937,9 +2498,9 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
@@ -1951,9 +2512,9 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
@@ -1965,9 +2526,9 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
@@ -1979,9 +2540,9 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
@@ -1993,9 +2554,9 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
@@ -2007,9 +2568,9 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
@@ -2021,9 +2582,9 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
@@ -2036,8 +2597,8 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
@@ -2050,8 +2611,8 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
@@ -2064,8 +2625,8 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
@@ -2078,8 +2639,8 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
@@ -2092,8 +2653,8 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
@@ -2106,8 +2667,8 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
@@ -2120,8 +2681,8 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
@@ -2134,8 +2695,8 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
@@ -2148,8 +2709,8 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
@@ -2162,8 +2723,8 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
@@ -2176,8 +2737,8 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
@@ -2190,8 +2751,8 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
@@ -2204,8 +2765,8 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
@@ -2218,8 +2779,8 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
@@ -2232,8 +2793,8 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
@@ -2246,8 +2807,8 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
@@ -2260,8 +2821,8 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
@@ -2274,8 +2835,8 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
@@ -2288,8 +2849,8 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
@@ -2302,8 +2863,8 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
@@ -2316,8 +2877,8 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
@@ -2330,8 +2891,8 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
@@ -2344,8 +2905,8 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
@@ -2358,8 +2919,8 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
@@ -2372,8 +2933,8 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
@@ -2386,8 +2947,8 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
@@ -2400,8 +2961,8 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
@@ -2414,8 +2975,8 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
@@ -2428,8 +2989,8 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
@@ -2442,8 +3003,8 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
@@ -2456,8 +3017,8 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
@@ -2470,8 +3031,8 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
@@ -2484,8 +3045,8 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
@@ -2498,8 +3059,8 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
@@ -2512,8 +3073,8 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
@@ -2526,8 +3087,8 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
@@ -2540,20 +3101,32 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
@@ -2566,8 +3139,8 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
@@ -2580,8 +3153,8 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
@@ -2594,8 +3167,8 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
@@ -2608,8 +3181,8 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
@@ -2622,8 +3195,8 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
@@ -2636,8 +3209,8 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
@@ -2650,8 +3223,8 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
@@ -2664,8 +3237,8 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
@@ -2678,8 +3251,8 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
@@ -2692,8 +3265,8 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
@@ -2706,8 +3279,8 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
@@ -2720,8 +3293,8 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
@@ -2734,8 +3307,8 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
@@ -2748,8 +3321,8 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
@@ -2762,8 +3335,8 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
@@ -2776,8 +3349,8 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
@@ -2790,8 +3363,8 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
@@ -2804,8 +3377,8 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
@@ -2818,8 +3391,8 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
@@ -2832,8 +3405,8 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
@@ -2846,8 +3419,8 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
@@ -2860,8 +3433,8 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
@@ -2874,8 +3447,8 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
@@ -2888,8 +3461,8 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
@@ -2902,8 +3475,8 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
@@ -2916,8 +3489,8 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
@@ -2930,8 +3503,8 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
@@ -2944,8 +3517,8 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
@@ -2958,8 +3531,8 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
@@ -2972,8 +3545,8 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
@@ -2986,8 +3559,8 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
@@ -3000,8 +3573,8 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
@@ -3014,8 +3587,8 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
@@ -3028,8 +3601,8 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
@@ -3042,8 +3615,8 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
@@ -3056,8 +3629,8 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
@@ -3070,8 +3643,8 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
@@ -3084,8 +3657,8 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
@@ -3098,8 +3671,8 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
@@ -3112,8 +3685,8 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
@@ -3126,8 +3699,8 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
@@ -3140,8 +3713,8 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
@@ -3154,8 +3727,8 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
@@ -3168,8 +3741,8 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
@@ -3182,8 +3755,8 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
@@ -3196,8 +3769,8 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
@@ -3210,8 +3783,8 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
@@ -3224,8 +3797,8 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
@@ -3238,8 +3811,8 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
@@ -3252,8 +3825,8 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
@@ -3266,8 +3839,8 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
@@ -3280,8 +3853,8 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
@@ -3294,8 +3867,8 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
@@ -3308,8 +3881,8 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
@@ -3322,8 +3895,8 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
@@ -3336,8 +3909,8 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
@@ -3350,8 +3923,8 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
@@ -3364,8 +3937,8 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
@@ -3378,8 +3951,8 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
@@ -3392,8 +3965,8 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
-      <c r="K165" s="5"/>
-      <c r="L165" s="5"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
@@ -3406,8 +3979,8 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
@@ -3420,8 +3993,8 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="5"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
@@ -3434,8 +4007,8 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="5"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
@@ -3448,8 +4021,8 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
-      <c r="K169" s="5"/>
-      <c r="L169" s="5"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
@@ -3462,8 +4035,8 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
@@ -3476,8 +4049,8 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
@@ -3490,8 +4063,8 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
-      <c r="K172" s="5"/>
-      <c r="L172" s="5"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
@@ -3504,8 +4077,8 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
-      <c r="K173" s="5"/>
-      <c r="L173" s="5"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
@@ -3518,8 +4091,8 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
-      <c r="K174" s="5"/>
-      <c r="L174" s="5"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
@@ -3532,8 +4105,8 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="5"/>
-      <c r="L175" s="5"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
@@ -3546,8 +4119,8 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="5"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
@@ -3560,8 +4133,8 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
-      <c r="L177" s="5"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
@@ -3574,8 +4147,8 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
-      <c r="K178" s="5"/>
-      <c r="L178" s="5"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
@@ -3588,8 +4161,8 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
-      <c r="K179" s="5"/>
-      <c r="L179" s="5"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
@@ -3602,8 +4175,8 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="5"/>
-      <c r="L180" s="5"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
@@ -3616,8 +4189,8 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
-      <c r="K181" s="5"/>
-      <c r="L181" s="5"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
@@ -3630,8 +4203,8 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
-      <c r="K182" s="5"/>
-      <c r="L182" s="5"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
@@ -3644,8 +4217,8 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="5"/>
-      <c r="L183" s="5"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
@@ -3658,8 +4231,8 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
-      <c r="K184" s="5"/>
-      <c r="L184" s="5"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
@@ -3672,8 +4245,8 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
-      <c r="K185" s="5"/>
-      <c r="L185" s="5"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
@@ -3686,8 +4259,8 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
-      <c r="K186" s="5"/>
-      <c r="L186" s="5"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
@@ -3700,8 +4273,8 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
@@ -3714,8 +4287,8 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
-      <c r="K188" s="5"/>
-      <c r="L188" s="5"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
@@ -3728,8 +4301,8 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="5"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
@@ -3742,8 +4315,8 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
-      <c r="K190" s="5"/>
-      <c r="L190" s="5"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
@@ -3756,8 +4329,8 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
-      <c r="K191" s="5"/>
-      <c r="L191" s="5"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
@@ -3770,8 +4343,8 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
-      <c r="K192" s="5"/>
-      <c r="L192" s="5"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
@@ -3784,8 +4357,8 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
-      <c r="K193" s="5"/>
-      <c r="L193" s="5"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
@@ -3798,8 +4371,8 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
-      <c r="K194" s="5"/>
-      <c r="L194" s="5"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
@@ -3812,8 +4385,8 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
-      <c r="K195" s="5"/>
-      <c r="L195" s="5"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
@@ -3826,8 +4399,8 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
-      <c r="K196" s="5"/>
-      <c r="L196" s="5"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
@@ -3840,8 +4413,8 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
-      <c r="K197" s="5"/>
-      <c r="L197" s="5"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
@@ -3854,8 +4427,8 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="5"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
@@ -3868,8 +4441,8 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
@@ -3882,8 +4455,8 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
@@ -3896,23 +4469,38 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
-      <c r="K201" s="5"/>
-      <c r="L201" s="5"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="7"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="7"/>
+      <c r="L202" s="7"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="7"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="7"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="7"/>
+      <c r="L205" s="7"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="7"/>
+      <c r="L206" s="7"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
@@ -3925,8 +4513,8 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
-      <c r="K207" s="5"/>
-      <c r="L207" s="5"/>
+      <c r="K207" s="7"/>
+      <c r="L207" s="7"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
@@ -3939,8 +4527,8 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
-      <c r="K208" s="5"/>
-      <c r="L208" s="5"/>
+      <c r="K208" s="7"/>
+      <c r="L208" s="7"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
@@ -3953,8 +4541,8 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
-      <c r="K209" s="5"/>
-      <c r="L209" s="5"/>
+      <c r="K209" s="7"/>
+      <c r="L209" s="7"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
@@ -3967,8 +4555,8 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
-      <c r="K210" s="5"/>
-      <c r="L210" s="5"/>
+      <c r="K210" s="7"/>
+      <c r="L210" s="7"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
@@ -3981,8 +4569,8 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="5"/>
-      <c r="L211" s="5"/>
+      <c r="K211" s="7"/>
+      <c r="L211" s="7"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
@@ -3995,8 +4583,8 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
-      <c r="K212" s="5"/>
-      <c r="L212" s="5"/>
+      <c r="K212" s="7"/>
+      <c r="L212" s="7"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
@@ -4009,8 +4597,8 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
-      <c r="K213" s="5"/>
-      <c r="L213" s="5"/>
+      <c r="K213" s="7"/>
+      <c r="L213" s="7"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
@@ -4023,8 +4611,8 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
-      <c r="K214" s="5"/>
-      <c r="L214" s="5"/>
+      <c r="K214" s="7"/>
+      <c r="L214" s="7"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
@@ -4037,8 +4625,8 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
-      <c r="K215" s="5"/>
-      <c r="L215" s="5"/>
+      <c r="K215" s="7"/>
+      <c r="L215" s="7"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
@@ -4051,8 +4639,8 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
-      <c r="K216" s="5"/>
-      <c r="L216" s="5"/>
+      <c r="K216" s="7"/>
+      <c r="L216" s="7"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
@@ -4065,8 +4653,8 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
-      <c r="K217" s="5"/>
-      <c r="L217" s="5"/>
+      <c r="K217" s="7"/>
+      <c r="L217" s="7"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
@@ -4079,8 +4667,8 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
-      <c r="K218" s="5"/>
-      <c r="L218" s="5"/>
+      <c r="K218" s="7"/>
+      <c r="L218" s="7"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
@@ -4093,8 +4681,8 @@
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
-      <c r="K219" s="5"/>
-      <c r="L219" s="5"/>
+      <c r="K219" s="7"/>
+      <c r="L219" s="7"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
@@ -4107,8 +4695,8 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
-      <c r="K220" s="5"/>
-      <c r="L220" s="5"/>
+      <c r="K220" s="7"/>
+      <c r="L220" s="7"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
@@ -4121,8 +4709,8 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
-      <c r="K221" s="5"/>
-      <c r="L221" s="5"/>
+      <c r="K221" s="7"/>
+      <c r="L221" s="7"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
@@ -4135,8 +4723,8 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
-      <c r="K222" s="5"/>
-      <c r="L222" s="5"/>
+      <c r="K222" s="7"/>
+      <c r="L222" s="7"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
@@ -4149,8 +4737,8 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
-      <c r="K223" s="5"/>
-      <c r="L223" s="5"/>
+      <c r="K223" s="7"/>
+      <c r="L223" s="7"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
@@ -4163,8 +4751,8 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
-      <c r="K224" s="5"/>
-      <c r="L224" s="5"/>
+      <c r="K224" s="7"/>
+      <c r="L224" s="7"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
@@ -4177,8 +4765,8 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
-      <c r="K225" s="5"/>
-      <c r="L225" s="5"/>
+      <c r="K225" s="7"/>
+      <c r="L225" s="7"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
@@ -4191,8 +4779,8 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
-      <c r="K226" s="5"/>
-      <c r="L226" s="5"/>
+      <c r="K226" s="7"/>
+      <c r="L226" s="7"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
@@ -4205,8 +4793,8 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
-      <c r="K227" s="5"/>
-      <c r="L227" s="5"/>
+      <c r="K227" s="7"/>
+      <c r="L227" s="7"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
@@ -4219,8 +4807,8 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
-      <c r="K228" s="5"/>
-      <c r="L228" s="5"/>
+      <c r="K228" s="7"/>
+      <c r="L228" s="7"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
@@ -4233,8 +4821,8 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
-      <c r="K229" s="5"/>
-      <c r="L229" s="5"/>
+      <c r="K229" s="7"/>
+      <c r="L229" s="7"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
@@ -4247,8 +4835,8 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
-      <c r="K230" s="5"/>
-      <c r="L230" s="5"/>
+      <c r="K230" s="7"/>
+      <c r="L230" s="7"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
@@ -4261,8 +4849,8 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
-      <c r="K231" s="5"/>
-      <c r="L231" s="5"/>
+      <c r="K231" s="7"/>
+      <c r="L231" s="7"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
@@ -4275,8 +4863,8 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
-      <c r="K232" s="5"/>
-      <c r="L232" s="5"/>
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
@@ -4289,8 +4877,8 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
-      <c r="K233" s="5"/>
-      <c r="L233" s="5"/>
+      <c r="K233" s="7"/>
+      <c r="L233" s="7"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
@@ -4303,8 +4891,8 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
-      <c r="K234" s="5"/>
-      <c r="L234" s="5"/>
+      <c r="K234" s="7"/>
+      <c r="L234" s="7"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
@@ -4317,8 +4905,8 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
-      <c r="K235" s="5"/>
-      <c r="L235" s="5"/>
+      <c r="K235" s="7"/>
+      <c r="L235" s="7"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
@@ -4331,8 +4919,8 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
-      <c r="K236" s="5"/>
-      <c r="L236" s="5"/>
+      <c r="K236" s="7"/>
+      <c r="L236" s="7"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
@@ -4345,8 +4933,8 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
-      <c r="K237" s="5"/>
-      <c r="L237" s="5"/>
+      <c r="K237" s="7"/>
+      <c r="L237" s="7"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
@@ -4359,8 +4947,8 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
-      <c r="K238" s="5"/>
-      <c r="L238" s="5"/>
+      <c r="K238" s="7"/>
+      <c r="L238" s="7"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
@@ -4373,8 +4961,8 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="5"/>
-      <c r="L239" s="5"/>
+      <c r="K239" s="7"/>
+      <c r="L239" s="7"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
@@ -4387,8 +4975,8 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
-      <c r="K240" s="5"/>
-      <c r="L240" s="5"/>
+      <c r="K240" s="7"/>
+      <c r="L240" s="7"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
@@ -4401,8 +4989,8 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
-      <c r="K241" s="5"/>
-      <c r="L241" s="5"/>
+      <c r="K241" s="7"/>
+      <c r="L241" s="7"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
@@ -4415,8 +5003,8 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
-      <c r="K242" s="5"/>
-      <c r="L242" s="5"/>
+      <c r="K242" s="7"/>
+      <c r="L242" s="7"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
@@ -4429,8 +5017,8 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
-      <c r="K243" s="5"/>
-      <c r="L243" s="5"/>
+      <c r="K243" s="7"/>
+      <c r="L243" s="7"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
@@ -4443,8 +5031,8 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
-      <c r="K244" s="5"/>
-      <c r="L244" s="5"/>
+      <c r="K244" s="7"/>
+      <c r="L244" s="7"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
@@ -4457,8 +5045,8 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="5"/>
-      <c r="L245" s="5"/>
+      <c r="K245" s="7"/>
+      <c r="L245" s="7"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
@@ -4471,8 +5059,8 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
-      <c r="K246" s="5"/>
-      <c r="L246" s="5"/>
+      <c r="K246" s="7"/>
+      <c r="L246" s="7"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
@@ -4485,8 +5073,8 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="5"/>
-      <c r="L247" s="5"/>
+      <c r="K247" s="7"/>
+      <c r="L247" s="7"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
@@ -4499,8 +5087,8 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
-      <c r="K248" s="5"/>
-      <c r="L248" s="5"/>
+      <c r="K248" s="7"/>
+      <c r="L248" s="7"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
@@ -4513,8 +5101,8 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
-      <c r="K249" s="5"/>
-      <c r="L249" s="5"/>
+      <c r="K249" s="7"/>
+      <c r="L249" s="7"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
@@ -4527,8 +5115,8 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
-      <c r="K250" s="5"/>
-      <c r="L250" s="5"/>
+      <c r="K250" s="7"/>
+      <c r="L250" s="7"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
@@ -4541,8 +5129,8 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="5"/>
-      <c r="L251" s="5"/>
+      <c r="K251" s="7"/>
+      <c r="L251" s="7"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
@@ -4555,8 +5143,8 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
-      <c r="K252" s="5"/>
-      <c r="L252" s="5"/>
+      <c r="K252" s="7"/>
+      <c r="L252" s="7"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
@@ -4569,8 +5157,8 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
-      <c r="K253" s="5"/>
-      <c r="L253" s="5"/>
+      <c r="K253" s="7"/>
+      <c r="L253" s="7"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
@@ -4583,8 +5171,8 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
-      <c r="K254" s="5"/>
-      <c r="L254" s="5"/>
+      <c r="K254" s="7"/>
+      <c r="L254" s="7"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
@@ -4597,8 +5185,8 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
-      <c r="K255" s="5"/>
-      <c r="L255" s="5"/>
+      <c r="K255" s="7"/>
+      <c r="L255" s="7"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
@@ -4611,8 +5199,8 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
-      <c r="K256" s="5"/>
-      <c r="L256" s="5"/>
+      <c r="K256" s="7"/>
+      <c r="L256" s="7"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
@@ -4625,8 +5213,8 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
-      <c r="K257" s="5"/>
-      <c r="L257" s="5"/>
+      <c r="K257" s="7"/>
+      <c r="L257" s="7"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
@@ -4639,8 +5227,8 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
-      <c r="K258" s="5"/>
-      <c r="L258" s="5"/>
+      <c r="K258" s="7"/>
+      <c r="L258" s="7"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
@@ -4653,8 +5241,8 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="5"/>
-      <c r="L259" s="5"/>
+      <c r="K259" s="7"/>
+      <c r="L259" s="7"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
@@ -4667,8 +5255,8 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
-      <c r="K260" s="5"/>
-      <c r="L260" s="5"/>
+      <c r="K260" s="7"/>
+      <c r="L260" s="7"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
@@ -4681,8 +5269,8 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
-      <c r="K261" s="5"/>
-      <c r="L261" s="5"/>
+      <c r="K261" s="7"/>
+      <c r="L261" s="7"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
@@ -4695,8 +5283,8 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
-      <c r="K262" s="5"/>
-      <c r="L262" s="5"/>
+      <c r="K262" s="7"/>
+      <c r="L262" s="7"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
@@ -4709,8 +5297,8 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
-      <c r="K263" s="5"/>
-      <c r="L263" s="5"/>
+      <c r="K263" s="7"/>
+      <c r="L263" s="7"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
@@ -4723,8 +5311,8 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
-      <c r="K264" s="5"/>
-      <c r="L264" s="5"/>
+      <c r="K264" s="7"/>
+      <c r="L264" s="7"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
@@ -4737,8 +5325,8 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
-      <c r="K265" s="5"/>
-      <c r="L265" s="5"/>
+      <c r="K265" s="7"/>
+      <c r="L265" s="7"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
@@ -4751,8 +5339,8 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="5"/>
-      <c r="L266" s="5"/>
+      <c r="K266" s="7"/>
+      <c r="L266" s="7"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
@@ -4765,8 +5353,8 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="5"/>
-      <c r="L267" s="5"/>
+      <c r="K267" s="7"/>
+      <c r="L267" s="7"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
@@ -4779,8 +5367,8 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="5"/>
-      <c r="L268" s="5"/>
+      <c r="K268" s="7"/>
+      <c r="L268" s="7"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
@@ -4793,8 +5381,8 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="5"/>
-      <c r="L269" s="5"/>
+      <c r="K269" s="7"/>
+      <c r="L269" s="7"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
@@ -4807,8 +5395,8 @@
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
-      <c r="K270" s="5"/>
-      <c r="L270" s="5"/>
+      <c r="K270" s="7"/>
+      <c r="L270" s="7"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
@@ -4821,8 +5409,8 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="5"/>
-      <c r="L271" s="5"/>
+      <c r="K271" s="7"/>
+      <c r="L271" s="7"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
@@ -4835,8 +5423,8 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
-      <c r="K272" s="5"/>
-      <c r="L272" s="5"/>
+      <c r="K272" s="7"/>
+      <c r="L272" s="7"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
@@ -4849,8 +5437,8 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
-      <c r="K273" s="5"/>
-      <c r="L273" s="5"/>
+      <c r="K273" s="7"/>
+      <c r="L273" s="7"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
@@ -4863,8 +5451,8 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
-      <c r="K274" s="5"/>
-      <c r="L274" s="5"/>
+      <c r="K274" s="7"/>
+      <c r="L274" s="7"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
@@ -4877,8 +5465,8 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="5"/>
-      <c r="L275" s="5"/>
+      <c r="K275" s="7"/>
+      <c r="L275" s="7"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
@@ -4891,8 +5479,8 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
-      <c r="K276" s="5"/>
-      <c r="L276" s="5"/>
+      <c r="K276" s="7"/>
+      <c r="L276" s="7"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
@@ -4905,8 +5493,8 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
-      <c r="K277" s="5"/>
-      <c r="L277" s="5"/>
+      <c r="K277" s="7"/>
+      <c r="L277" s="7"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
@@ -4919,8 +5507,8 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
-      <c r="K278" s="5"/>
-      <c r="L278" s="5"/>
+      <c r="K278" s="7"/>
+      <c r="L278" s="7"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
@@ -4933,8 +5521,8 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="5"/>
-      <c r="L279" s="5"/>
+      <c r="K279" s="7"/>
+      <c r="L279" s="7"/>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
@@ -4947,8 +5535,8 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
-      <c r="K280" s="5"/>
-      <c r="L280" s="5"/>
+      <c r="K280" s="7"/>
+      <c r="L280" s="7"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
@@ -4961,8 +5549,8 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
-      <c r="K281" s="5"/>
-      <c r="L281" s="5"/>
+      <c r="K281" s="7"/>
+      <c r="L281" s="7"/>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
@@ -4975,8 +5563,8 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
-      <c r="K282" s="5"/>
-      <c r="L282" s="5"/>
+      <c r="K282" s="7"/>
+      <c r="L282" s="7"/>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
@@ -4989,8 +5577,8 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
-      <c r="K283" s="5"/>
-      <c r="L283" s="5"/>
+      <c r="K283" s="7"/>
+      <c r="L283" s="7"/>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
@@ -5003,8 +5591,8 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
-      <c r="K284" s="5"/>
-      <c r="L284" s="5"/>
+      <c r="K284" s="7"/>
+      <c r="L284" s="7"/>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
@@ -5017,8 +5605,8 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="5"/>
-      <c r="L285" s="5"/>
+      <c r="K285" s="7"/>
+      <c r="L285" s="7"/>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
@@ -5031,8 +5619,8 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
-      <c r="K286" s="5"/>
-      <c r="L286" s="5"/>
+      <c r="K286" s="7"/>
+      <c r="L286" s="7"/>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
@@ -5045,8 +5633,8 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
-      <c r="K287" s="5"/>
-      <c r="L287" s="5"/>
+      <c r="K287" s="7"/>
+      <c r="L287" s="7"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
@@ -5059,8 +5647,8 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
-      <c r="K288" s="5"/>
-      <c r="L288" s="5"/>
+      <c r="K288" s="7"/>
+      <c r="L288" s="7"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
@@ -5073,8 +5661,8 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
-      <c r="K289" s="5"/>
-      <c r="L289" s="5"/>
+      <c r="K289" s="7"/>
+      <c r="L289" s="7"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
@@ -5087,8 +5675,8 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
-      <c r="K290" s="5"/>
-      <c r="L290" s="5"/>
+      <c r="K290" s="7"/>
+      <c r="L290" s="7"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
@@ -5101,8 +5689,8 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
-      <c r="K291" s="5"/>
-      <c r="L291" s="5"/>
+      <c r="K291" s="7"/>
+      <c r="L291" s="7"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
@@ -5115,8 +5703,8 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
-      <c r="K292" s="5"/>
-      <c r="L292" s="5"/>
+      <c r="K292" s="7"/>
+      <c r="L292" s="7"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
@@ -5129,8 +5717,8 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="5"/>
-      <c r="L293" s="5"/>
+      <c r="K293" s="7"/>
+      <c r="L293" s="7"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
@@ -5143,8 +5731,8 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
-      <c r="K294" s="5"/>
-      <c r="L294" s="5"/>
+      <c r="K294" s="7"/>
+      <c r="L294" s="7"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
@@ -5157,8 +5745,8 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
-      <c r="K295" s="5"/>
-      <c r="L295" s="5"/>
+      <c r="K295" s="7"/>
+      <c r="L295" s="7"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
@@ -5171,8 +5759,8 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
-      <c r="K296" s="5"/>
-      <c r="L296" s="5"/>
+      <c r="K296" s="7"/>
+      <c r="L296" s="7"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
@@ -5185,8 +5773,8 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
-      <c r="K297" s="5"/>
-      <c r="L297" s="5"/>
+      <c r="K297" s="7"/>
+      <c r="L297" s="7"/>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
@@ -5199,8 +5787,8 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
-      <c r="K298" s="5"/>
-      <c r="L298" s="5"/>
+      <c r="K298" s="7"/>
+      <c r="L298" s="7"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
@@ -5213,8 +5801,8 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
-      <c r="K299" s="5"/>
-      <c r="L299" s="5"/>
+      <c r="K299" s="7"/>
+      <c r="L299" s="7"/>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
@@ -5227,17 +5815,29 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
-      <c r="K300" s="5"/>
-      <c r="L300" s="5"/>
+      <c r="K300" s="7"/>
+      <c r="L300" s="7"/>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
+      <c r="J301" s="5"/>
+      <c r="K301" s="7"/>
+      <c r="L301" s="7"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="7"/>
+      <c r="L302" s="7"/>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
+      <c r="J303" s="5"/>
+      <c r="K303" s="7"/>
+      <c r="L303" s="7"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J304" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5247,16 +5847,11 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x01010011C6DF1D34B6844CAED72037826533DF" ma:contentTypeVersion="4" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="ff0a661c8de12a43b06c3f2976cb9298">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97282573-dc74-4323-b57a-37707babf337" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf37442e46171f02bf048c95d859f92d" ns3:_="">
     <xsd:import namespace="97282573-dc74-4323-b57a-37707babf337"/>
@@ -5402,6 +5997,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5412,22 +6013,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3FD7A0-ACA5-4A56-9466-3A7A2DCBE4AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="97282573-dc74-4323-b57a-37707babf337"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB03603-F101-403B-95CB-E96B77D970F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5445,6 +6030,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3FD7A0-ACA5-4A56-9466-3A7A2DCBE4AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="97282573-dc74-4323-b57a-37707babf337"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFCDC02F-420C-489C-BE11-1C5CB4CCB5B0}">
   <ds:schemaRefs>
